--- a/time_for_operations.xlsx
+++ b/time_for_operations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\123\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E099D0F6-4F90-4917-A55E-CB94A01499B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A17A4A51-1ED1-47F8-A42F-B521F3540AAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>BST:Fill</t>
   </si>
@@ -43,39 +43,6 @@
   </si>
   <si>
     <t>Vector:Insert&amp;remove</t>
-  </si>
-  <si>
-    <t>0.001 ms</t>
-  </si>
-  <si>
-    <t>0.003 ms</t>
-  </si>
-  <si>
-    <t>2.238 ms</t>
-  </si>
-  <si>
-    <t>33.047 ms</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.006 ms</t>
-  </si>
-  <si>
-    <t>0.012 ms</t>
-  </si>
-  <si>
-    <t>0.035 ms</t>
-  </si>
-  <si>
-    <t>0.054 ms</t>
-  </si>
-  <si>
-    <t>0.008 ms</t>
-  </si>
-  <si>
-    <t>0.025 ms</t>
-  </si>
-  <si>
-    <t>0.014 ms</t>
   </si>
   <si>
     <r>
@@ -95,16 +62,58 @@
     </r>
   </si>
   <si>
-    <t>404.023ms</t>
-  </si>
-  <si>
-    <t>0.263 ms</t>
-  </si>
-  <si>
-    <t>0.448 ms</t>
-  </si>
-  <si>
-    <t>0.131 ms</t>
+    <t>0.04363 ms</t>
+  </si>
+  <si>
+    <t>0.00015 ms</t>
+  </si>
+  <si>
+    <t>0.00016 ms</t>
+  </si>
+  <si>
+    <t>0.01130 ms</t>
+  </si>
+  <si>
+    <t>0.48770 ms</t>
+  </si>
+  <si>
+    <t>0.02550 ms</t>
+  </si>
+  <si>
+    <t>0.44977 ms</t>
+  </si>
+  <si>
+    <t>0.00467 ms</t>
+  </si>
+  <si>
+    <t>0.00055 ms</t>
+  </si>
+  <si>
+    <t>0.02520 ms</t>
+  </si>
+  <si>
+    <t>0.36920 ms</t>
+  </si>
+  <si>
+    <t>0.03630 ms</t>
+  </si>
+  <si>
+    <t>6.06718 ms</t>
+  </si>
+  <si>
+    <t>0.00046 ms</t>
+  </si>
+  <si>
+    <t>0.00032 ms</t>
+  </si>
+  <si>
+    <t>0.24200 ms</t>
+  </si>
+  <si>
+    <t>36.78780 ms</t>
+  </si>
+  <si>
+    <t>0.53920 ms</t>
   </si>
 </sst>
 </file>
@@ -459,7 +468,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -472,7 +481,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B1" s="3">
         <v>1000</v>
@@ -489,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -503,13 +512,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -517,13 +526,13 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -531,13 +540,13 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -545,13 +554,13 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -559,13 +568,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/time_for_operations.xlsx
+++ b/time_for_operations.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\123\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\123\source\repos\Set\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A17A4A51-1ED1-47F8-A42F-B521F3540AAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CB1F522-E2E1-48C3-AEA6-3474050FF00E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -62,58 +62,58 @@
     </r>
   </si>
   <si>
-    <t>0.04363 ms</t>
-  </si>
-  <si>
-    <t>0.00015 ms</t>
-  </si>
-  <si>
-    <t>0.00016 ms</t>
-  </si>
-  <si>
-    <t>0.01130 ms</t>
-  </si>
-  <si>
-    <t>0.48770 ms</t>
-  </si>
-  <si>
-    <t>0.02550 ms</t>
-  </si>
-  <si>
-    <t>0.44977 ms</t>
-  </si>
-  <si>
-    <t>0.00467 ms</t>
-  </si>
-  <si>
-    <t>0.00055 ms</t>
-  </si>
-  <si>
-    <t>0.02520 ms</t>
-  </si>
-  <si>
-    <t>0.36920 ms</t>
-  </si>
-  <si>
-    <t>0.03630 ms</t>
-  </si>
-  <si>
-    <t>6.06718 ms</t>
-  </si>
-  <si>
-    <t>0.00046 ms</t>
-  </si>
-  <si>
-    <t>0.00032 ms</t>
-  </si>
-  <si>
-    <t>0.24200 ms</t>
-  </si>
-  <si>
-    <t>36.78780 ms</t>
-  </si>
-  <si>
-    <t>0.53920 ms</t>
+    <t>0.41095 ms</t>
+  </si>
+  <si>
+    <t>0.00260 ms</t>
+  </si>
+  <si>
+    <t>0.00231 ms</t>
+  </si>
+  <si>
+    <t>0.01510 ms</t>
+  </si>
+  <si>
+    <t>0.01290 ms</t>
+  </si>
+  <si>
+    <t>0.00760 ms</t>
+  </si>
+  <si>
+    <t>9.74254 ms</t>
+  </si>
+  <si>
+    <t>0.00082 ms</t>
+  </si>
+  <si>
+    <t>0.00340 ms</t>
+  </si>
+  <si>
+    <t>0.13510 ms</t>
+  </si>
+  <si>
+    <t>0.02130 ms</t>
+  </si>
+  <si>
+    <t>0.01910 ms</t>
+  </si>
+  <si>
+    <t>86.56595 ms</t>
+  </si>
+  <si>
+    <t>0.00141 ms</t>
+  </si>
+  <si>
+    <t>0.00433 ms</t>
+  </si>
+  <si>
+    <t>1.34470 ms</t>
+  </si>
+  <si>
+    <t>0.48510 ms</t>
+  </si>
+  <si>
+    <t>0.15660 ms</t>
   </si>
 </sst>
 </file>
@@ -468,7 +468,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
